--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\myprojects\OpencartDemo\opencart-ecommerce\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD06DA0A-C0E8-473A-B482-B1F9588C7969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FC9B4E-CB63-4379-B393-B22473EF22DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9A3CC1BF-7DD9-48B8-990E-AEFE46F0DC89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
   <si>
     <t>username</t>
   </si>
@@ -33,23 +35,83 @@
     <t>password</t>
   </si>
   <si>
+    <t>raishabegum.ba@gmail.com</t>
+  </si>
+  <si>
     <t>Raisha@123</t>
   </si>
   <si>
+    <t>begum</t>
+  </si>
+  <si>
+    <t>begum@123</t>
+  </si>
+  <si>
+    <t>raishabegum</t>
+  </si>
+  <si>
+    <t>raishabegum@123</t>
+  </si>
+  <si>
+    <t>raishaba</t>
+  </si>
+  <si>
+    <t>raishaba@123</t>
+  </si>
+  <si>
+    <t>begumba</t>
+  </si>
+  <si>
+    <t>begumba@123</t>
+  </si>
+  <si>
+    <t>baraisha</t>
+  </si>
+  <si>
+    <t>baraisha@123</t>
+  </si>
+  <si>
+    <t>baraishabegum</t>
+  </si>
+  <si>
+    <t>baraishabegum@123</t>
+  </si>
+  <si>
     <t>result</t>
   </si>
   <si>
+    <t>mythili12345</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
     <t>valid</t>
   </si>
   <si>
+    <t>invalid</t>
+  </si>
+  <si>
     <t>raisha.begum6@gmail.com</t>
+  </si>
+  <si>
+    <t>mythili@10gmail.com</t>
+  </si>
+  <si>
+    <t>Raisha@1234</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +141,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,10 +170,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA67787-B927-4113-BE85-5053B4F59078}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,26 +513,426 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{9AB2F5BC-C561-443E-96ED-EA1EEE23851E}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{AFFF12EB-0E94-4E92-9D07-5CE790C6B0C2}"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{C7A05EC2-582A-4088-A5B8-3DBE53410EE1}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{1A68EC7D-587B-4969-804F-10FA551936B8}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{9AB2F5BC-C561-443E-96ED-EA1EEE23851E}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{378E1496-D143-41F6-8C75-CA0A09FD213E}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{DC88DC74-9495-4D73-9F86-0C63FBD19224}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{62B3C3B7-8BEC-4DD7-91FE-14772AE87D53}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{32B11CC2-1CAA-49F3-B782-50193E4E81EB}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{4EE855B4-DB44-4C5F-ACC5-FC07134B9DAC}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{04145179-ED83-49AA-990F-1BBBE1E7CB7B}"/>
+    <hyperlink ref="A2" r:id="rId10" xr:uid="{AFFF12EB-0E94-4E92-9D07-5CE790C6B0C2}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{9A94020C-82C7-4B56-9F89-0552D1D64351}"/>
+    <hyperlink ref="A8" r:id="rId12" xr:uid="{C746E138-24CE-487C-8029-2FF2A2C14FCC}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{96837A43-BB56-4611-8C01-A78D772C0767}"/>
+    <hyperlink ref="B9" r:id="rId14" xr:uid="{FB587C95-4BC6-4AE3-BDCA-0FBCAFC97784}"/>
+    <hyperlink ref="A9" r:id="rId15" xr:uid="{78503FDB-10CD-4144-9B93-89D7CFB50AEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C41FE2E-FCC8-429E-9FB7-1C0509BA8FF6}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5DEB52CE-097E-438B-9074-DB75D2DA78AE}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{3A807101-E64A-4948-A3E9-0F94D61CCAB9}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{E925BD34-D03F-418E-9C29-3C07343D9384}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{B640CB88-6B8F-4F20-A45D-41234A951B6F}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{0C0ECBD9-C43F-46FC-8927-4A47DA80EB9D}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{A56FBD5F-32A9-4D85-B0DB-879865BCC741}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{A1841538-0789-4E0C-ABD3-48DA19A8D8FC}"/>
+    <hyperlink ref="A6" r:id="rId8" xr:uid="{E63C3508-F0DF-4024-AC8C-C65557BE0BAA}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{91664427-CC4A-4D62-87DD-0316621BB3FE}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{16A67F4B-B324-438C-A3ED-C28ED44BDFC1}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{1305DD0C-B044-459E-A0DE-7DB3452EBE41}"/>
+    <hyperlink ref="A10" r:id="rId12" xr:uid="{C24BE5C6-30A7-402E-AA43-CBC89966689D}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{A144730E-2AE9-4077-97E7-A9C469A39B0C}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{2C6E50C8-6071-4F30-8FC8-7527EF171706}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{CFB79663-7F72-4659-A356-9E89EB4A4D0D}"/>
+    <hyperlink ref="A14" r:id="rId16" xr:uid="{FB60DFE1-D381-412C-9FC0-64783B9D1371}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{0FED475B-B012-4E92-8EDC-21DBC672AA2C}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{08F31C40-6807-46EE-8990-20426649B671}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{91D1DA05-52C3-4BF3-AB50-F1410AF0B197}"/>
+    <hyperlink ref="A18" r:id="rId20" xr:uid="{997CA53E-310C-4A46-9464-FAB324C8D0B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1056BF-23FF-4F99-9F0D-EA655F2934C6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>